--- a/Supplements/SData 2.xlsx
+++ b/Supplements/SData 2.xlsx
@@ -759,9 +759,6 @@
     <t>PAIR MAPPED TO CONSENSUS</t>
   </si>
   <si>
-    <t>Number of reads mapping to P4 consensus sequences</t>
-  </si>
-  <si>
     <t>Col+Tsu</t>
   </si>
   <si>
@@ -778,9 +775,6 @@
   </si>
   <si>
     <t>INFORM.</t>
-  </si>
-  <si>
-    <t>Number of informative read pairs detected by map preference for one P4 consensus sequence over another</t>
   </si>
   <si>
     <t>All</t>
@@ -806,8 +800,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tabs "ReadCounts1" and "ReadCounts2" lists reads and statistics on raw data from sequencing. Mapping statistics on all replicates sequenced are given for homozygous crosses in mapability relative to TAIR10 in the "Map_TAIR"-tab. Map rate of all reads, and informative reads only, relative to the P4 concensus are given in tabs "Map_p4_all" and "Map_p4_informative", respectively.</t>
+      <t>Tabs "ReadCounts1" and "ReadCounts2" lists reads and statistics on raw data from sequencing. Mapping statistics on all replicates sequenced are given for homozygous crosses in mapability relative to TAIR10 in the "Map_TAIR"-tab. Map rate of all reads, and informative reads only, relative to the new reference concensus are given in tabs "Map_p4_all" and "Map_p4_informative", respectively.</t>
     </r>
+  </si>
+  <si>
+    <t>Number of reads mapping to the new reference consensus sequences</t>
+  </si>
+  <si>
+    <t>Number of informative read pairs detected by map preference for one new reference consensus sequence over another</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1928,111 +1928,111 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="A2" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7040,7 +7040,7 @@
         <v>284280520</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" ref="G116:G147" si="4">F116/4</f>
+        <f t="shared" ref="G116:G127" si="4">F116/4</f>
         <v>71070130</v>
       </c>
       <c r="H116" s="16"/>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" s="79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7747,8 +7747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7766,7 +7766,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -8830,7 +8830,7 @@
         <v>293662428</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" ref="G36:G67" si="2">F36/4</f>
+        <f t="shared" ref="G36:G57" si="2">F36/4</f>
         <v>73415607</v>
       </c>
       <c r="H36" t="s">
@@ -8840,7 +8840,7 @@
         <v>71238272</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" ref="K36:K67" si="3">J36/(2*G36)</f>
+        <f t="shared" ref="K36:K57" si="3">J36/(2*G36)</f>
         <v>0.48517117075664851</v>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9521,7 +9521,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="47"/>
@@ -9538,16 +9538,16 @@
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="5"/>
       <c r="E3" s="39"/>
       <c r="F3" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>242</v>
@@ -9564,16 +9564,16 @@
         <v>135</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9600,7 +9600,7 @@
         <v>9.8890250659441833E-2</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9627,7 +9627,7 @@
         <v>9.5394760380623556E-2</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9654,7 +9654,7 @@
         <v>0.11823058856668577</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9678,7 +9678,7 @@
         <v>8.8147780967654729E-2</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9702,7 +9702,7 @@
         <v>9.2548993123240927E-2</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9726,7 +9726,7 @@
         <v>9.0573745639269426E-2</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9750,7 +9750,7 @@
         <v>0.10139215945755592</v>
       </c>
       <c r="H11" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9774,7 +9774,7 @@
         <v>0.11106644342722019</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9798,7 +9798,7 @@
         <v>0.11357531024466563</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9822,7 +9822,7 @@
         <v>8.8297845065634817E-2</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9846,7 +9846,7 @@
         <v>9.012277166694535E-2</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9870,7 +9870,7 @@
         <v>9.0491966220352868E-2</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -9894,7 +9894,7 @@
         <v>8.6543811385056638E-2</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -9918,7 +9918,7 @@
         <v>8.6343630330343604E-2</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -9942,7 +9942,7 @@
         <v>8.624329021334573E-2</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -9966,7 +9966,7 @@
         <v>9.2647646849861875E-2</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -9990,7 +9990,7 @@
         <v>9.3297658260570168E-2</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10014,7 +10014,7 @@
         <v>9.4688663316768881E-2</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10038,7 +10038,7 @@
         <v>9.8998118753537284E-2</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10062,7 +10062,7 @@
         <v>8.7516794671236395E-2</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10086,7 +10086,7 @@
         <v>8.0685709030644592E-2</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10110,7 +10110,7 @@
         <v>9.3917169223198524E-2</v>
       </c>
       <c r="H26" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10134,7 +10134,7 @@
         <v>0.10894435070962813</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10158,7 +10158,7 @@
         <v>8.1952376234372168E-2</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10182,7 +10182,7 @@
         <v>9.020655496042887E-2</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10206,7 +10206,7 @@
         <v>8.9666252061898641E-2</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10230,7 +10230,7 @@
         <v>8.3651770392635993E-2</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10254,7 +10254,7 @@
         <v>8.6564700805393552E-2</v>
       </c>
       <c r="H32" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10278,7 +10278,7 @@
         <v>9.2494796705637955E-2</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -10302,7 +10302,7 @@
         <v>8.1250455268296801E-2</v>
       </c>
       <c r="H34" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -10326,7 +10326,7 @@
         <v>8.0777942314806547E-2</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -10350,7 +10350,7 @@
         <v>8.7586957613919922E-2</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -10374,7 +10374,7 @@
         <v>8.4676847169311259E-2</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -10398,7 +10398,7 @@
         <v>8.6845762933230417E-2</v>
       </c>
       <c r="H38" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -10422,7 +10422,7 @@
         <v>8.1030628053396905E-2</v>
       </c>
       <c r="H39" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -10446,7 +10446,7 @@
         <v>8.804694750851616E-2</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -10470,7 +10470,7 @@
         <v>7.3435342960313732E-2</v>
       </c>
       <c r="H41" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -10494,7 +10494,7 @@
         <v>8.7167292369996666E-2</v>
       </c>
       <c r="H42" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -10518,7 +10518,7 @@
         <v>8.5430552986954858E-2</v>
       </c>
       <c r="H43" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -10542,7 +10542,7 @@
         <v>7.1330165090707776E-2</v>
       </c>
       <c r="H44" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10566,7 +10566,7 @@
         <v>7.4133336755893536E-2</v>
       </c>
       <c r="H45" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -10590,13 +10590,13 @@
         <v>8.0058160670460343E-2</v>
       </c>
       <c r="H46" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="77"/>
       <c r="C47" s="83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D47" s="88"/>
       <c r="E47" s="76">
@@ -10612,7 +10612,7 @@
         <v>8.888574893725032E-2</v>
       </c>
       <c r="H47" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -10648,7 +10648,7 @@
         <v>8.3420224715280794E-2</v>
       </c>
       <c r="H49" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -10675,7 +10675,7 @@
         <v>8.1988653685800036E-2</v>
       </c>
       <c r="H50" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -10702,7 +10702,7 @@
         <v>0.10244659543121906</v>
       </c>
       <c r="H51" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -10726,7 +10726,7 @@
         <v>7.2965742992566307E-2</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -10750,7 +10750,7 @@
         <v>6.7326944295342875E-2</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -10774,7 +10774,7 @@
         <v>7.2380604334403423E-2</v>
       </c>
       <c r="H54" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -10798,7 +10798,7 @@
         <v>7.3228909928165845E-2</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -10822,7 +10822,7 @@
         <v>7.8324206277037386E-2</v>
       </c>
       <c r="H56" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -10846,7 +10846,7 @@
         <v>7.9502494538470608E-2</v>
       </c>
       <c r="H57" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -10870,7 +10870,7 @@
         <v>7.2002196400680313E-2</v>
       </c>
       <c r="H58" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
         <v>7.3641207989711591E-2</v>
       </c>
       <c r="H59" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -10918,7 +10918,7 @@
         <v>7.1433042411045852E-2</v>
       </c>
       <c r="H60" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -10942,7 +10942,7 @@
         <v>6.4140159867443605E-2</v>
       </c>
       <c r="H61" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -10966,7 +10966,7 @@
         <v>6.2246980494243515E-2</v>
       </c>
       <c r="H62" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -10990,13 +10990,13 @@
         <v>6.2250010021909379E-2</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="C64" s="83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D64" s="90"/>
       <c r="E64" s="48">
@@ -11012,7 +11012,7 @@
         <v>7.1087704394435833E-2</v>
       </c>
       <c r="H64" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -11033,7 +11033,7 @@
         <v>8.5716145735174637E-2</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
